--- a/students.xlsx
+++ b/students.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1234-1234" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,82 +429,80 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Upload Date &amp; Time</t>
+          <t>Batch</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>92200133003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kirtan_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1234-1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>92200133003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Prashant_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1234-1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>92200133031</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kirtan_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1234-1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>92310133004</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bhargav_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>1234-1234</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ER Number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Upload Date &amp; Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>92310133004</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bhargav</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-08-21 00:00:51</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,87 +434,156 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ER Number</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Batch</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Upload Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Upload Time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>92200133003</t>
+          <t>92310133004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kirtan_1</t>
+          <t>Bhargav_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1234-1234</t>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>06:09:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>92200133003</t>
+          <t>922001330003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prashant_1</t>
+          <t>Prashnat_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1234-1234</t>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>05:10:10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>92200133031</t>
+          <t>92200133022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kirtan_1</t>
+          <t>Krish_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1234-1234</t>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>05:10:29</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>92310133004</t>
+          <t>92200133030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Aryan_Langhanoja_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>05:10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>92200133031</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kritan_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>05:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>922310133004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Bhargav_1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1234-1234</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>05:11:32</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,132 +458,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>92310133004</t>
+          <t>92200133003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bhargav_1</t>
+          <t>Prashant_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>06:09:07</t>
+          <t>18:27:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>922001330003</t>
+          <t>92200133031</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prashnat_1</t>
+          <t>Kirtan_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05:10:10</t>
+          <t>18:26:43</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>92200133022</t>
+          <t>92310133004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Krish_1</t>
+          <t>Bhargav_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05:10:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>92200133030</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aryan_Langhanoja_1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>05:10:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>92200133031</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kritan_1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>05:11:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>922310133004</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bhargav_1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>05:11:32</t>
+          <t>18:26:14</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All Students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1234-1234" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2025-2026" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2025-2027" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +20,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,90 +425,249 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Batch Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>ER Number</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Student Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Upload Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Upload Time</t>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Upload Date &amp; Time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>92200133003</t>
+          <t>1234-1234</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prashant_1</t>
+          <t>92310133004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>Bhargav_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>2025-09-07 12:17:35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>92200133031</t>
+          <t>2025-2026</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kirtan_1</t>
+          <t>92310133004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>Bhargav_1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:26:43</t>
+          <t>2025-09-07 12:17:42</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-2027</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>92310133004</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Bhargav_1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18:26:14</t>
+          <t>2025-09-07 12:19:09</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ER Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upload Date &amp; Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>92310133004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bhargav_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-09-07 12:17:35</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ER Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upload Date &amp; Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>92310133004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bhargav_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-09-07 12:17:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ER Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upload Date &amp; Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>92310133004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bhargav_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-09-07 12:19:09</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="All Students" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="1234-1234" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2025-2026" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2025-2027" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2022-2026" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,61 +453,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>92310133004</t>
+          <t>1233123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bhargav_1</t>
+          <t>qwe_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-09-07 12:17:35</t>
+          <t>2025-09-18 04:59:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-2026</t>
+          <t>1234-1234</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>92310133004</t>
+          <t>92200133031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bhargav_1</t>
+          <t>Kirtan_1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-09-07 12:17:42</t>
+          <t>2025-09-18 05:14:31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-2027</t>
+          <t>2022-2026</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>92200133003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Prashant_1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-09-18 04:52:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>92310133004</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Bhargav_1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-09-07 12:19:09</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-09-18 04:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>92310133019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Neel_1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-09-18 04:52:16</t>
         </is>
       </c>
     </row>
@@ -523,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,17 +594,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>92310133004</t>
+          <t>1233123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bhargav_1</t>
+          <t>qwe_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-07 12:17:35</t>
+          <t>2025-09-18 04:59:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>92200133031</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kirtan_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-09-18 05:14:31</t>
         </is>
       </c>
     </row>
@@ -576,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,70 +664,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>92200133003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Prashant_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-09-18 04:52:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>92310133004</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Bhargav_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-07 12:17:42</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ER Number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Upload Date &amp; Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>92310133004</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bhargav_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-07 12:19:09</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-09-18 04:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>92310133019</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Neel_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-09-18 04:52:16</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="All Students" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="1234-1234" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2022-2026" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024-2028" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,105 +453,1513 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1233123</t>
+          <t>92310133004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>qwe_1</t>
+          <t>Bhargav_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-09-18 04:59:49</t>
+          <t>2025-09-25 18:00:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1234-1234</t>
+          <t>2024-2028</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>92200133031</t>
+          <t>92400133015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kirtan_1</t>
+          <t>MIHIR_KISHORBHAI_DHEDHI_1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-09-18 05:14:31</t>
+          <t>2025-09-22 15:42:41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-2026</t>
+          <t>2024-2028</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>92200133003</t>
+          <t>92400133020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prashant_1</t>
+          <t>SALONI_KARTIKBHAI_RAMAVAT_1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-09-18 04:52:43</t>
+          <t>2025-09-22 15:24:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-2026</t>
+          <t>2024-2028</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>92310133004</t>
+          <t>92400133021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bhargav_1</t>
+          <t>KISHANKUMAR_DHIRAJLAL_KALAVADIYA_1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-09-18 04:51:57</t>
+          <t>2025-09-22 15:25:34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-2026</t>
+          <t>2024-2028</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>92310133019</t>
+          <t>92400133024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Neel_1</t>
+          <t>JENIL_DHARMESHBHAI_DOBARIYA_1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-09-18 04:52:16</t>
+          <t>2025-09-22 15:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>92400133026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RUSHBH_ASHOKBHAI_SUVAGIYA_1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>92400133027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DARSHIL_MANISHBHAI_SAPARA_1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>92400133029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DHIMANT_SUNILBHAI_BHALSOD_1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>92400133030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRAJVAL_ASHOKGIRI_GOSAI_1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>92400133034</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VINEESHA_DEEPAKBHAI_MADNANI_1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>92400133035</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>JADEJA_RAJDEEPSINH_1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>92400133037</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HEER_MEHTA_1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:27:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>92400133041</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SLOCK_RAVIKUMAR_AHUJA_1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:27:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>92400133042</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DHRITI_BHARATBHAI_FALDU_1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:28:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>92400133044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DEV_RADIA_1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:28:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>92400133048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BHAVARTH_VINODBHAI_BHAMBHANI_1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>92400133050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KRISH_NITINBHAI_MENDPARA_1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:38:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>92400133054</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DHARMIK_KAMLESHBHAI_GODALKA_1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:29:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>92400133055</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RUHAAN_HASIBKHAN_PATHAN_1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>92400133057</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MANAV_KASUNDRA_1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:29:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>92400133058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AUM_DAVE_1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>92400133059</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PINAL_RAJESHBHAI_GADHIYA_1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:30:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>92400133060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SHREYA_ASHWINBHAI_VACHHANI_1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:31:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>92400133061</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DHYEYKUMAR_MANOJBHAI_MARVANIYA_1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>92400133063</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MEET_SHAILESHBHAI_MARVANIYA_1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>92400133066</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SHREYANSHI_BALIYAN_1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>92400133068</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BHUMI_DIXIT_SOLANKI_1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:42:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>92400133073</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DEVARSH_JIGNESHKUMAR_BHATT_1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:32:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>92400133074</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DHANANJAY_BHARATBHAI_SAVSANI_1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:33:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>92400133075</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CHIRAGSINH_CHETANSINH_JADEJA_1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>92400133079</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>YUG_RAJESH_MAKWANA_1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>92400133080</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SHUBH_NAVNEETBHAI_VACHHANI_1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>92400133081</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MANAV_NILESHBHAI_CHOTAI_1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>92400133088</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MITKUMAR_MANISHBHAI_CHODVADIYA_1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>92400133089</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DARSHIT_SATISHBHAI_KACHA_1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>92400133090</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PREM_PRAKASH_JOSHI_1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:42:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>92400133104</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AVANI_CHAMPAKBHAI_KAVATHIYA_1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>92400133106</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DHRUVIN_DIPAKBHAI_BHALARA_1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:35:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>92400133108</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KRISH_ASHWINBHAI_SONDAGAR_1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:35:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>92400133109</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PRINCE_HARESHBHAI_VAGHASIYA_1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:35:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>92400133113</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>VISHANT_ANILBHAI_CHHANIYARA_1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:36:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>92400133120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>IRA_ANKURBHAI_BHOGAYATA_1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>92400133125</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MANKUMAR_ALPESHBHAI_BHALODIYA_1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:36:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>92400133129</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RUDRA_SURESHBHAI_MIYANI_1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:36:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>92400133131</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FARHAN_SABIRBHAI_KALADIYA_1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:37:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>92400133132</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DHAVAL_SURESHBHAI_BAHOPIYA_1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:37:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>92400133138</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AYUSH_NARAYAN_SUBUDHI_1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:38:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>92400133140</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>VRUSHANK_BHAVESHBHAI_RAMANI_1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>92400133141</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PRIYANK_VINUBHAI_VEKARIYA_1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>92400133150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KENIL_AMITBHAI_PAREKH_1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>92400133154</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AKSHAT_PANKAJ_SHAH_1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>92400133156</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIYA_RAJESH_KALARIA_1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>92400133157</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>OM_DHOLARIYA_1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>92400133158</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DHWANI__DESAI_1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>92400133161</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DIVA_CHINTAN_PAREKH_1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:40:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>92400133169</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RISHI__SAMPAT_1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>92400133170</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NEMIL_CHHAGANI_1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:40:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>92400133183</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DHRUVI_GOVINDBHAI_BHUDIYA_1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>92400133184</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CHANDANI_JAGDISHBHAI_PATEL_1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>92400133189</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>OM_BHARATBHAI_LATHIGARA_1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:44:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>92400133191</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TAKSH_MANSUKHBHAI_AMRUTIYA_1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>92510133003</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MANTHAN__DOBARIYA_1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>92510133008</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SHIVKUMAR_PAUN_1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:17:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>92510133023</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>KRISHRAJ_KAUSHIKBHAI_RATHOD_1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>92510133027</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MEET_NITINBHAI_SENJALIYA_1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>92510133028</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>KESHVI_SHAILESHBHAI_SANTOKI_1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:45:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>92510133029</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DHRUV_GOHEL_1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>92510133030</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SNEH_SANJAYBHAI_FALDU_1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-2028</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>92510133033</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DHRITI_VIJAYBHAI_AMBASANA_1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:45:41</t>
         </is>
       </c>
     </row>
@@ -566,7 +1974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,34 +2002,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1233123</t>
+          <t>92310133004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qwe_1</t>
+          <t>Bhargav_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-18 04:59:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>92200133031</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Kirtan_1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-09-18 05:14:31</t>
+          <t>2025-09-25 18:00:03</t>
         </is>
       </c>
     </row>
@@ -636,7 +2027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,51 +2055,1156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>92200133003</t>
+          <t>92400133015</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prashant_1</t>
+          <t>MIHIR_KISHORBHAI_DHEDHI_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-18 04:52:43</t>
+          <t>2025-09-22 15:42:41</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>92310133004</t>
+          <t>92400133020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bhargav_1</t>
+          <t>SALONI_KARTIKBHAI_RAMAVAT_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-18 04:51:57</t>
+          <t>2025-09-22 15:24:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>92310133019</t>
+          <t>92400133021</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Neel_1</t>
+          <t>KISHANKUMAR_DHIRAJLAL_KALAVADIYA_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-09-18 04:52:16</t>
+          <t>2025-09-22 15:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>92400133024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JENIL_DHARMESHBHAI_DOBARIYA_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>92400133026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RUSHBH_ASHOKBHAI_SUVAGIYA_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>92400133027</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DARSHIL_MANISHBHAI_SAPARA_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>92400133029</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DHIMANT_SUNILBHAI_BHALSOD_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>92400133030</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRAJVAL_ASHOKGIRI_GOSAI_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>92400133034</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VINEESHA_DEEPAKBHAI_MADNANI_1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>92400133035</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>JADEJA_RAJDEEPSINH_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>92400133037</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HEER_MEHTA_1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:27:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>92400133041</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SLOCK_RAVIKUMAR_AHUJA_1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:27:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>92400133042</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DHRITI_BHARATBHAI_FALDU_1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:28:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>92400133044</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DEV_RADIA_1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:28:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>92400133048</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BHAVARTH_VINODBHAI_BHAMBHANI_1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:28:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>92400133050</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KRISH_NITINBHAI_MENDPARA_1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:38:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>92400133054</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DHARMIK_KAMLESHBHAI_GODALKA_1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:29:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>92400133055</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RUHAAN_HASIBKHAN_PATHAN_1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>92400133057</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MANAV_KASUNDRA_1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:29:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>92400133058</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AUM_DAVE_1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>92400133059</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PINAL_RAJESHBHAI_GADHIYA_1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:30:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>92400133060</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SHREYA_ASHWINBHAI_VACHHANI_1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:31:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>92400133061</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DHYEYKUMAR_MANOJBHAI_MARVANIYA_1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>92400133063</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MEET_SHAILESHBHAI_MARVANIYA_1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>92400133066</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SHREYANSHI_BALIYAN_1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>92400133068</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BHUMI_DIXIT_SOLANKI_1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:42:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>92400133073</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DEVARSH_JIGNESHKUMAR_BHATT_1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:32:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>92400133074</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DHANANJAY_BHARATBHAI_SAVSANI_1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:33:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>92400133075</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CHIRAGSINH_CHETANSINH_JADEJA_1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>92400133079</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>YUG_RAJESH_MAKWANA_1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>92400133080</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SHUBH_NAVNEETBHAI_VACHHANI_1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>92400133081</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MANAV_NILESHBHAI_CHOTAI_1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>92400133088</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MITKUMAR_MANISHBHAI_CHODVADIYA_1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>92400133089</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DARSHIT_SATISHBHAI_KACHA_1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:34:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>92400133090</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PREM_PRAKASH_JOSHI_1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:42:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>92400133104</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AVANI_CHAMPAKBHAI_KAVATHIYA_1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>92400133106</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DHRUVIN_DIPAKBHAI_BHALARA_1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:35:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>92400133108</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>KRISH_ASHWINBHAI_SONDAGAR_1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:35:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>92400133109</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PRINCE_HARESHBHAI_VAGHASIYA_1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:35:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>92400133113</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VISHANT_ANILBHAI_CHHANIYARA_1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:36:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>92400133120</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>IRA_ANKURBHAI_BHOGAYATA_1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>92400133125</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MANKUMAR_ALPESHBHAI_BHALODIYA_1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:36:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>92400133129</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RUDRA_SURESHBHAI_MIYANI_1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:36:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>92400133131</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FARHAN_SABIRBHAI_KALADIYA_1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:37:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>92400133132</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DHAVAL_SURESHBHAI_BAHOPIYA_1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:37:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>92400133138</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AYUSH_NARAYAN_SUBUDHI_1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:38:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>92400133140</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VRUSHANK_BHAVESHBHAI_RAMANI_1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>92400133141</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PRIYANK_VINUBHAI_VEKARIYA_1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>92400133150</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KENIL_AMITBHAI_PAREKH_1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>92400133154</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AKSHAT_PANKAJ_SHAH_1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>92400133156</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DIYA_RAJESH_KALARIA_1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>92400133157</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>OM_DHOLARIYA_1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>92400133158</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DHWANI__DESAI_1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:39:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>92400133161</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DIVA_CHINTAN_PAREKH_1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:40:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>92400133169</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RISHI__SAMPAT_1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:41:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>92400133170</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NEMIL_CHHAGANI_1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:40:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>92400133183</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DHRUVI_GOVINDBHAI_BHUDIYA_1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>92400133184</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CHANDANI_JAGDISHBHAI_PATEL_1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>92400133189</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>OM_BHARATBHAI_LATHIGARA_1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:44:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>92400133191</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TAKSH_MANSUKHBHAI_AMRUTIYA_1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>92510133003</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MANTHAN__DOBARIYA_1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>92510133008</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SHIVKUMAR_PAUN_1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:17:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>92510133023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>KRISHRAJ_KAUSHIKBHAI_RATHOD_1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>92510133027</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MEET_NITINBHAI_SENJALIYA_1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>92510133028</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KESHVI_SHAILESHBHAI_SANTOKI_1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:45:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>92510133029</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DHRUV_GOHEL_1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>92510133030</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SNEH_SANJAYBHAI_FALDU_1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>92510133033</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DHRITI_VIJAYBHAI_AMBASANA_1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-09-22 15:45:41</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="All Students" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="1234-1234" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2025-2026" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +463,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-28 05:30:37</t>
+          <t>2025-11-28 15:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-2026</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>92200133031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kirtan_1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-11-28 15:47:28</t>
         </is>
       </c>
     </row>
@@ -515,7 +538,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-28 05:30:37</t>
+          <t>2025-11-28 15:02:13</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ER Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upload Date &amp; Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>92200133031</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kirtan_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-11-28 15:47:28</t>
         </is>
       </c>
     </row>
